--- a/data/trans_camb/P25_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_3-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -639,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 22,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,63</t>
+          <t>-4,68; 7,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,84</t>
+          <t>-4,6; 10,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,43</t>
+          <t>-7,12; 4,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 7,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 5,12</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 2,22</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>118,46%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>-7,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>134,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>75,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,7%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 2,76</t>
+          <t>-13,84; 7,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 5,5</t>
+          <t>-15,82; 6,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 1,7</t>
+          <t>-14,06; 10,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 5,3</t>
+          <t>-3,46; 5,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 0,92</t>
+          <t>-3,51; 6,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,56</t>
+          <t>-1,72; 12,57</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 3,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 4,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 7,66</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-51,41%</t>
+          <t>-39,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-30,81%</t>
+          <t>-38,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,25%</t>
+          <t>-21,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-53,8%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>220,89%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-31,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,83%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,76%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-91,83; 232,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 258,75</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-90,67; 284,59</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-88,37; 221,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-89,11; 41,94</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-70,97; 127,61</t>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-87,44; 206,87</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-83,82; 233,67</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-69,65; 303,19</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 13,84</t>
+          <t>-14,87; 10,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 5,84</t>
+          <t>-18,04; 6,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 8,63</t>
+          <t>-7,67; 20,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 7,32</t>
+          <t>-5,02; 10,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 9,34</t>
+          <t>-5,09; 9,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 4,64</t>
+          <t>-1,79; 19,72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 7,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 5,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 16,24</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-38,22%</t>
+          <t>-37,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>56,16%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-21,59%</t>
+          <t>123,75%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-10,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>73,48%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 126,09</t>
+          <t>-67,01; 108,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 63,74</t>
+          <t>-80,54; 95,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 370,62</t>
+          <t>-38,84; 213,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,04; 274,2</t>
+          <t>-75,35; 570,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 116,49</t>
+          <t>-74,13; 667,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 68,04</t>
+          <t>-49,72; 1130,63</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-54,99; 131,69</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-62,87; 106,76</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,3; 276,23</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>16,17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13,04</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 11,71</t>
+          <t>-8,17; 12,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 9,62</t>
+          <t>-10,98; 9,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 13,43</t>
+          <t>-1,72; 21,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 18,11</t>
+          <t>-5,79; 12,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 9,97</t>
+          <t>-3,11; 17,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 11,81</t>
+          <t>4,9; 27,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 10,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 10,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 20,85</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>144,31%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23,1%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29,79%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>111,85%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 109,81</t>
+          <t>-49,35; 209,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 86,32</t>
+          <t>-63,98; 136,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 147,0</t>
+          <t>-14,38; 317,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,42; 193,88</t>
+          <t>-38,85; 170,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 85,96</t>
+          <t>-23,49; 253,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 107,85</t>
+          <t>23,45; 386,89</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 124,89</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-27,86; 134,75</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32,13; 267,93</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8,39</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 16,64</t>
+          <t>-12,31; 18,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 13,49</t>
+          <t>-12,9; 16,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 16,5</t>
+          <t>-8,26; 23,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 13,12</t>
+          <t>-13,1; 18,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 12,17</t>
+          <t>-13,19; 20,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 9,94</t>
+          <t>-7,19; 26,87</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 12,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 12,05</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; 19,68</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>41,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36,64%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 93,01</t>
+          <t>-37,26; 112,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 76,27</t>
+          <t>-42,79; 103,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 86,26</t>
+          <t>-27,0; 137,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 65,09</t>
+          <t>-46,81; 132,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 58,82</t>
+          <t>-43,56; 144,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 49,08</t>
+          <t>-25,48; 195,97</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-27,46; 71,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 65,98</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; 104,16</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-9,64</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-12,48</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-5,24</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 5,35</t>
+          <t>-27,66; 10,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 17,17</t>
+          <t>-20,34; 20,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 15,19</t>
+          <t>-30,33; 8,89</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 12,57</t>
+          <t>-20,99; 16,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 7,38</t>
+          <t>-25,47; 11,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 10,63</t>
+          <t>-16,03; 25,48</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-20,06; 8,55</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-17,69; 10,38</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-16,56; 11,64</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-33,82%</t>
+          <t>-28,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>-40,2%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-7,2%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>-22,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-17,26%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-11,37%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-6,28%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,58; 28,47</t>
+          <t>-67,54; 61,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 85,75</t>
+          <t>-51,57; 101,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 76,98</t>
+          <t>-75,31; 50,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 61,2</t>
+          <t>-53,44; 80,15</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 33,39</t>
+          <t>-66,74; 61,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 46,67</t>
+          <t>-41,78; 127,17</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-50,58; 40,92</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-47,84; 44,87</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-44,1; 50,31</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>8,65</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,85</t>
+          <t>-6,16; 4,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,78</t>
+          <t>-7,65; 2,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,03</t>
+          <t>-4,18; 7,27</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,44</t>
+          <t>-3,25; 5,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,72</t>
+          <t>-2,56; 6,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,07</t>
+          <t>3,43; 14,62</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 3,59</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 3,16</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 9,25</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-16,19%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>82,01%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-0,46%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 30,49</t>
+          <t>-34,88; 37,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 16,42</t>
+          <t>-42,77; 20,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 58,9</t>
+          <t>-24,73; 57,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 63,91</t>
+          <t>-26,65; 61,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 29,88</t>
+          <t>-19,89; 82,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 24,59</t>
+          <t>27,6; 178,09</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 32,15</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-25,82; 28,56</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 85,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
